--- a/docs/ST1/ST1_30.07.24v_output.xlsx
+++ b/docs/ST1/ST1_30.07.24v_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,6 +485,11 @@
           <t>quity</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -528,6 +533,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -540,22 +546,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1730736992.878782</t>
+          <t>1731623939.6355872</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1730736993.140089</t>
+          <t>1731623939.942674</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730736992.878782.png</t>
+          <t>./test_images/SBER1731623939.6355872.png</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730736993.140089.png</t>
+          <t>./test_images/SBER1731623939.942674.png</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -576,6 +582,9 @@
       </c>
       <c r="K3" t="n">
         <v>0.3100000000000023</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="4">
@@ -589,13 +598,13 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1730737007.946581</t>
+          <t>1731623955.8088093</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730737007.946581.png</t>
+          <t>./test_images/GAZP1731623955.8088093.png</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -612,8 +621,15 @@
       <c r="I4" t="n">
         <v>132.41</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>132.41</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -626,22 +642,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1730737014.6576815</t>
+          <t>1731623962.8195994</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1730737016.5118718</t>
+          <t>1731623964.6569347</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730737014.6576815.png</t>
+          <t>./test_images/LKOH1731623962.8195994.png</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730737016.5118718.png</t>
+          <t>./test_images/LKOH1731623964.6569347.png</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -662,6 +678,9 @@
       </c>
       <c r="K5" t="n">
         <v>22</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.32</v>
       </c>
     </row>
     <row r="6">
@@ -675,22 +694,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1730737017.2090895</t>
+          <t>1731623965.3493986</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1730737019.999573</t>
+          <t>1731623968.054076</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730737017.2090895.png</t>
+          <t>./test_images/LKOH1731623965.3493986.png</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730737019.999573.png</t>
+          <t>./test_images/LKOH1731623968.054076.png</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -711,6 +730,9 @@
       </c>
       <c r="K6" t="n">
         <v>-2.5</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="7">
@@ -724,22 +746,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1730737023.9425914</t>
+          <t>1731623972.170816</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1730737026.6993206</t>
+          <t>1731623975.3048973</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730737023.9425914.png</t>
+          <t>./test_images/ROSN1731623972.170816.png</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730737026.6993206.png</t>
+          <t>./test_images/ROSN1731623975.3048973.png</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -760,6 +782,9 @@
       </c>
       <c r="K7" t="n">
         <v>-1.050000000000011</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-0.21</v>
       </c>
     </row>
     <row r="8">
@@ -773,22 +798,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1730737026.7152781</t>
+          <t>1731623975.3208632</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1730737026.9756107</t>
+          <t>1731623975.6147456</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730737026.7152781.png</t>
+          <t>./test_images/ROSN1731623975.3208632.png</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730737026.9756107.png</t>
+          <t>./test_images/ROSN1731623975.6147456.png</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -809,6 +834,9 @@
       </c>
       <c r="K8" t="n">
         <v>0.9499999999999318</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="9">
@@ -822,22 +850,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1730737030.2613328</t>
+          <t>1731623979.2409625</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1730737030.7226808</t>
+          <t>1731623979.7368588</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730737030.2613328.png</t>
+          <t>./test_images/ROSN1731623979.2409625.png</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730737030.7226808.png</t>
+          <t>./test_images/ROSN1731623979.7368588.png</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -858,6 +886,9 @@
       </c>
       <c r="K9" t="n">
         <v>0.6500000000000341</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="10">
@@ -871,22 +902,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1730737032.3288076</t>
+          <t>1731623981.32194</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1730737038.6908655</t>
+          <t>1731623987.665357</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730737032.3288076.png</t>
+          <t>./test_images/NVTK1731623981.32194.png</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730737038.6908655.png</t>
+          <t>./test_images/NVTK1731623987.665357.png</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -907,6 +938,9 @@
       </c>
       <c r="K10" t="n">
         <v>-1.599999999999909</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="11">
@@ -920,22 +954,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1730737038.7068543</t>
+          <t>1731623987.6813147</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1730737039.528658</t>
+          <t>1731623988.5979483</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730737038.7068543.png</t>
+          <t>./test_images/NVTK1731623987.6813147.png</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730737039.528658.png</t>
+          <t>./test_images/NVTK1731623988.5979483.png</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -956,6 +990,9 @@
       </c>
       <c r="K11" t="n">
         <v>4.600000000000136</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.44</v>
       </c>
     </row>
     <row r="12">
@@ -969,13 +1006,13 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1730737040.8463702</t>
+          <t>1731623990.0007937</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730737040.8463702.png</t>
+          <t>./test_images/NVTK1731623990.0007937.png</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
@@ -992,8 +1029,15 @@
       <c r="I12" t="n">
         <v>1043</v>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>1043</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1006,22 +1050,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1730737046.8996458</t>
+          <t>1731623996.1902354</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1730737047.253094</t>
+          <t>1731623996.5407073</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730737046.8996458.png</t>
+          <t>./test_images/GMKN1731623996.1902354.png</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730737047.253094.png</t>
+          <t>./test_images/GMKN1731623996.5407073.png</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1042,6 +1086,9 @@
       </c>
       <c r="K13" t="n">
         <v>0.1800000000000068</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="14">
@@ -1055,22 +1102,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1730737047.2690225</t>
+          <t>1731623996.555679</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1730737048.9200819</t>
+          <t>1731623998.2430487</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730737047.2690225.png</t>
+          <t>./test_images/GMKN1731623996.555679.png</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730737048.9200819.png</t>
+          <t>./test_images/GMKN1731623998.2430487.png</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1091,6 +1138,9 @@
       </c>
       <c r="K14" t="n">
         <v>0.1400000000000006</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="15">
@@ -1104,13 +1154,13 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1730737048.9350424</t>
+          <t>1731623998.2579765</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730737048.9350424.png</t>
+          <t>./test_images/GMKN1731623998.2579765.png</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
@@ -1127,8 +1177,15 @@
       <c r="I15" t="n">
         <v>127.42</v>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>127.42</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1141,22 +1198,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1730737050.8536515</t>
+          <t>1731624000.2241764</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1730737055.0064843</t>
+          <t>1731624004.3737402</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730737050.8536515.png</t>
+          <t>./test_images/NLMK1731624000.2241764.png</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730737055.0064843.png</t>
+          <t>./test_images/NLMK1731624004.3737402.png</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1177,6 +1234,9 @@
       </c>
       <c r="K16" t="n">
         <v>0.7199999999999989</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.43</v>
       </c>
     </row>
     <row r="17">
@@ -1190,22 +1250,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1730737056.0489886</t>
+          <t>1731624005.421782</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1730737059.6750774</t>
+          <t>1731624008.9890466</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730737056.0489886.png</t>
+          <t>./test_images/NLMK1731624005.421782.png</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730737059.6750774.png</t>
+          <t>./test_images/NLMK1731624008.9890466.png</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1226,6 +1286,9 @@
       </c>
       <c r="K17" t="n">
         <v>-0.7800000000000011</v>
+      </c>
+      <c r="L17" t="n">
+        <v>-0.47</v>
       </c>
     </row>
     <row r="18">
@@ -1239,13 +1302,13 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1730737059.6910348</t>
+          <t>1731624009.0049853</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730737059.6910348.png</t>
+          <t>./test_images/NLMK1731624009.0049853.png</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
@@ -1262,8 +1325,15 @@
       <c r="I18" t="n">
         <v>165.7</v>
       </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>165.7</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1276,13 +1346,13 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1730737061.0546162</t>
+          <t>1731624010.360331</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730737061.0546162.png</t>
+          <t>./test_images/MAGN1731624010.360331.png</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -1299,8 +1369,15 @@
       <c r="I19" t="n">
         <v>51.74</v>
       </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>51.74</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1313,22 +1390,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1730737071.243351</t>
+          <t>1731624021.0370963</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1730737072.1707811</t>
+          <t>1731624022.0573816</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730737071.243351.png</t>
+          <t>./test_images/CHMF1731624021.0370963.png</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730737072.1707811.png</t>
+          <t>./test_images/CHMF1731624022.0573816.png</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1349,6 +1426,9 @@
       </c>
       <c r="K20" t="n">
         <v>2.200000000000045</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="21">
@@ -1362,22 +1442,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1730737076.5199506</t>
+          <t>1731624026.835046</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1730737078.5704353</t>
+          <t>1731624029.0883539</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730737076.5199506.png</t>
+          <t>./test_images/CHMF1731624026.835046.png</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730737078.5704353.png</t>
+          <t>./test_images/CHMF1731624029.0883539.png</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1398,6 +1478,9 @@
       </c>
       <c r="K21" t="n">
         <v>1.399999999999864</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="22">
@@ -1411,22 +1494,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1730737079.7631843</t>
+          <t>1731624030.539718</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1730737082.6281524</t>
+          <t>1731624033.5734658</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730737079.7631843.png</t>
+          <t>./test_images/ALRS1731624030.539718.png</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730737082.6281524.png</t>
+          <t>./test_images/ALRS1731624033.5734658.png</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1447,6 +1530,9 @@
       </c>
       <c r="K22" t="n">
         <v>0.02000000000000313</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="23">
@@ -1460,22 +1546,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1730737083.1631649</t>
+          <t>1731624034.130293</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1730737086.0856776</t>
+          <t>1731624037.2534127</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730737083.1631649.png</t>
+          <t>./test_images/ALRS1731624034.130293.png</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730737086.0856776.png</t>
+          <t>./test_images/ALRS1731624037.2534127.png</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1496,6 +1582,9 @@
       </c>
       <c r="K23" t="n">
         <v>-0.06000000000000227</v>
+      </c>
+      <c r="L23" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="24">
@@ -1509,22 +1598,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1730737086.9074817</t>
+          <t>1731624038.0644522</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1730737087.8942513</t>
+          <t>1731624039.1067877</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730737086.9074817.png</t>
+          <t>./test_images/ALRS1731624038.0644522.png</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730737087.8942513.png</t>
+          <t>./test_images/ALRS1731624039.1067877.png</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1545,6 +1634,9 @@
       </c>
       <c r="K24" t="n">
         <v>-0.04999999999999716</v>
+      </c>
+      <c r="L24" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="25">
@@ -1558,22 +1650,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1730737087.9102085</t>
+          <t>1731624039.1237435</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1730737088.364343</t>
+          <t>1731624039.624317</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730737087.9102085.png</t>
+          <t>./test_images/ALRS1731624039.1237435.png</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730737088.364343.png</t>
+          <t>./test_images/ALRS1731624039.624317.png</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1594,6 +1686,9 @@
       </c>
       <c r="K25" t="n">
         <v>0.0800000000000054</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="26">
@@ -1607,22 +1702,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1730737094.0075967</t>
+          <t>1731624045.7841873</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1730737097.2267704</t>
+          <t>1731624049.3904002</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>./test_images/SOFL1730737094.0075967.png</t>
+          <t>./test_images/SOFL1731624045.7841873.png</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>./test_images/SOFL1730737097.2267704.png</t>
+          <t>./test_images/SOFL1731624049.3904002.png</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1643,6 +1738,9 @@
       </c>
       <c r="K26" t="n">
         <v>-0.1400000000000148</v>
+      </c>
+      <c r="L26" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="27">
@@ -1656,13 +1754,13 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1730737097.2416987</t>
+          <t>1731624049.4053605</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>./test_images/SOFL1730737097.2416987.png</t>
+          <t>./test_images/SOFL1731624049.4053605.png</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -1679,8 +1777,15 @@
       <c r="I27" t="n">
         <v>141.22</v>
       </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>141.22</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1693,22 +1798,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1730737099.571258</t>
+          <t>1731624051.9051828</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1730737101.103861</t>
+          <t>1731624053.5637758</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>./test_images/ABIO1730737099.571258.png</t>
+          <t>./test_images/ABIO1731624051.9051828.png</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>./test_images/ABIO1730737101.103861.png</t>
+          <t>./test_images/ABIO1731624053.5637758.png</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1729,6 +1834,9 @@
       </c>
       <c r="K28" t="n">
         <v>-0.04999999999999716</v>
+      </c>
+      <c r="L28" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="29">
@@ -1742,22 +1850,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1730737101.1208165</t>
+          <t>1731624053.5797467</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1730737103.0973475</t>
+          <t>1731624055.701733</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>./test_images/ABIO1730737101.1208165.png</t>
+          <t>./test_images/ABIO1731624053.5797467.png</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>./test_images/ABIO1730737103.0973475.png</t>
+          <t>./test_images/ABIO1731624055.701733.png</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1778,6 +1886,9 @@
       </c>
       <c r="K29" t="n">
         <v>-0.07999999999999829</v>
+      </c>
+      <c r="L29" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="30">
@@ -1791,22 +1902,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1730737103.1143034</t>
+          <t>1731624055.7186897</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1730737103.8794365</t>
+          <t>1731624056.554432</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>./test_images/ABIO1730737103.1143034.png</t>
+          <t>./test_images/ABIO1731624055.7186897.png</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>./test_images/ABIO1730737103.8794365.png</t>
+          <t>./test_images/ABIO1731624056.554432.png</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1827,6 +1938,9 @@
       </c>
       <c r="K30" t="n">
         <v>0.1400000000000006</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="31">
@@ -1840,22 +1954,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1730737104.3978608</t>
+          <t>1731624057.097272</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1730737105.5563366</t>
+          <t>1731624058.1998043</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>./test_images/ABIO1730737104.3978608.png</t>
+          <t>./test_images/ABIO1731624057.097272.png</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>./test_images/ABIO1730737105.5563366.png</t>
+          <t>./test_images/ABIO1731624058.1998043.png</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1876,6 +1990,9 @@
       </c>
       <c r="K31" t="n">
         <v>0.05000000000000426</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="32">
@@ -1889,13 +2006,13 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1730737105.5732913</t>
+          <t>1731624058.216759</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>./test_images/ABIO1730737105.5732913.png</t>
+          <t>./test_images/ABIO1731624058.216759.png</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
@@ -1912,8 +2029,15 @@
       <c r="I32" t="n">
         <v>53.83</v>
       </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>53.83</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1926,22 +2050,22 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1730737113.3869574</t>
+          <t>1731624067.242288</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1730737114.8180041</t>
+          <t>1731624068.6654627</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>./test_images/BSPB1730737113.3869574.png</t>
+          <t>./test_images/BSPB1731624067.242288.png</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>./test_images/BSPB1730737114.8180041.png</t>
+          <t>./test_images/BSPB1731624068.6654627.png</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1962,6 +2086,9 @@
       </c>
       <c r="K33" t="n">
         <v>0.9900000000000091</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="34">
@@ -1975,13 +2102,13 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1730737128.551229</t>
+          <t>1731624082.231957</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730737128.551229.png</t>
+          <t>./test_images/MXI1731624082.231957.png</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
@@ -1998,8 +2125,15 @@
       <c r="I34" t="n">
         <v>3020.6</v>
       </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>3020.6</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2012,22 +2146,22 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1730737130.8461945</t>
+          <t>1731624084.4009275</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1730737135.739147</t>
+          <t>1731624089.855204</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>./test_images/RUAL1730737130.8461945.png</t>
+          <t>./test_images/RUAL1731624084.4009275.png</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>./test_images/RUAL1730737135.739147.png</t>
+          <t>./test_images/RUAL1731624089.855204.png</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2048,6 +2182,9 @@
       </c>
       <c r="K35" t="n">
         <v>0.07999999999999829</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="36">
@@ -2061,13 +2198,13 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1730737138.8797798</t>
+          <t>1731624093.3983095</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>./test_images/RUAL1730737138.8797798.png</t>
+          <t>./test_images/RUAL1731624093.3983095.png</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -2084,8 +2221,111 @@
       <c r="I36" t="n">
         <v>34.395</v>
       </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>34.395</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>1731624096.0223162</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1731624096.993377</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731624096.0223162.png</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731624096.993377.png</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>640.1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>640.3</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.1999999999999318</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>1731624104.2948105</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731624104.2948105.png</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>640.4</v>
+      </c>
+      <c r="J38" t="n">
+        <v>640.4</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2098,7 +2338,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2122,6 +2362,21 @@
           <t>count</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -2133,7 +2388,16 @@
         <v>0.06000000000000938</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.01200000000000188</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="3">
@@ -2148,147 +2412,255 @@
       <c r="C3" t="n">
         <v>4</v>
       </c>
+      <c r="D3" t="n">
+        <v>-0.002499999999997726</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.02000000000000002</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.01</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>ROSN</t>
+          <t>GMKN</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5499999999999545</v>
+        <v>0.3200000000000074</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
+      <c r="D4" t="n">
+        <v>0.1066666666666691</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>CHMF</t>
+          <t>NLMK</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.599999999999909</v>
+        <v>-0.06000000000000227</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.02000000000000076</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.04000000000000004</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>GMKN</t>
+          <t>NVTK</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3200000000000074</v>
+        <v>3.000000000000227</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.000000000000076</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>LKOH</t>
+          <t>ROSN</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.5</v>
+        <v>0.5499999999999545</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1833333333333182</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>NLMK</t>
+          <t>RUAL</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.06000000000000227</v>
+        <v>0.07999999999999829</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
+      <c r="D8" t="n">
+        <v>0.03999999999999915</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>NVTK</t>
+          <t>TATN</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.000000000000227</v>
+        <v>0.1999999999999318</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
       </c>
+      <c r="D9" t="n">
+        <v>0.09999999999996589</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>BSPB</t>
+          <t>CHMF</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9900000000000091</v>
+        <v>3.599999999999909</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.799999999999955</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>RUAL</t>
+          <t>SOFL</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.07999999999999829</v>
+        <v>-0.1400000000000148</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.07000000000000739</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>SBER</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3100000000000023</v>
+        <v>19.5</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D12" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>SOFL</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.1400000000000148</v>
+        <v>0.3100000000000023</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
       </c>
+      <c r="D13" t="n">
+        <v>0.3100000000000023</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>GAZP</t>
+          <t>MXI</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>0</v>
       </c>
       <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2302,34 +2674,79 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>MXI</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>0</v>
       </c>
       <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
+          <t>BSPB</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.9900000000000091</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9900000000000091</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/docs/ST1/ST1_30.07.24v_output.xlsx
+++ b/docs/ST1/ST1_30.07.24v_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731623939.6355872</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731623939.942674</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731623939.6355872.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731623939.942674.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>291.33</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>291.64</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.3100000000000023</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -591,95 +613,107 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731623955.8088093</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731623955.8088093.png</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731623955.8088093.png</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>132.41</v>
       </c>
-      <c r="J4" t="n">
-        <v>132.41</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>132.29</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.1200000000000045</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731623962.8195994</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731623964.6569347</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731623962.8195994.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731623964.6569347.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>6794.5</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>6816.5</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>22</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -687,51 +721,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731623965.3493986</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731623968.054076</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731623965.3493986.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731623968.054076.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>6810.5</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>6808</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-2.5</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -739,51 +779,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731623972.170816</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731623975.3048973</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731623972.170816.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731623975.3048973.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>510.8</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>511.85</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-1.050000000000011</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>-0.21</v>
       </c>
     </row>
@@ -791,51 +837,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731623975.3208632</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731623975.6147456</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731623975.3208632.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731623975.6147456.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>511.85</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>512.8</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.9499999999999318</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -843,51 +895,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731623979.2409625</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731623979.7368588</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731623979.2409625.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731623979.7368588.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>511.85</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>511.2</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.6500000000000341</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -895,51 +953,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731623981.32194</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731623987.665357</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731623981.32194.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731623987.665357.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>1048.8</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>1047.2</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-1.599999999999909</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -947,51 +1011,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731623987.6813147</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731623988.5979483</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731623987.6813147.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731623988.5979483.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>1047.2</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>1042.6</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>4.600000000000136</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.44</v>
       </c>
     </row>
@@ -999,95 +1069,107 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731623990.0007937</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731623990.0007937.png</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731623990.0007937.png</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>1043</v>
       </c>
-      <c r="J12" t="n">
-        <v>1043</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1047.2</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-4.200000000000045</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731623996.1902354</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731623996.5407073</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731623996.1902354.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731623996.5407073.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>127.38</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>127.56</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.1800000000000068</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -1095,51 +1177,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731623996.555679</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731623998.2430487</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731623996.555679.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731623998.2430487.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>127.56</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>127.42</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.1400000000000006</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -1147,95 +1235,107 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731623998.2579765</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731623998.2579765.png</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731623998.2579765.png</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>127.42</v>
       </c>
-      <c r="J15" t="n">
-        <v>127.42</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>127.38</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-0.04000000000000625</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731624000.2241764</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731624004.3737402</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731624000.2241764.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731624004.3737402.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>165.82</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>166.54</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.7199999999999989</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.43</v>
       </c>
     </row>
@@ -1243,51 +1343,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731624005.421782</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731624008.9890466</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731624005.421782.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731624008.9890466.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>166.48</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>165.7</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>-0.7800000000000011</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>-0.47</v>
       </c>
     </row>
@@ -1295,139 +1401,157 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731624009.0049853</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731624009.0049853.png</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731624009.0049853.png</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>165.7</v>
       </c>
-      <c r="J18" t="n">
-        <v>165.7</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>165.68</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.01999999999998181</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731624010.360331</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731624010.360331.png</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731624010.360331.png</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>51.74</v>
       </c>
-      <c r="J19" t="n">
-        <v>51.74</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>51.37</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-0.3700000000000045</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-0.72</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731624021.0370963</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731624022.0573816</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731624021.0370963.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731624022.0573816.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>1419.6</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>1421.8</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>2.200000000000045</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -1435,51 +1559,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731624026.835046</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731624029.0883539</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731624026.835046.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731624029.0883539.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>1420.6</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>1419.2</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>1.399999999999864</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -1487,51 +1617,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731624030.539718</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731624033.5734658</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731624030.539718.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731624033.5734658.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>60.65</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>60.67</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.02000000000000313</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -1539,51 +1675,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731624034.130293</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731624037.2534127</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731624034.130293.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731624037.2534127.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>60.61</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>60.55</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>-0.06000000000000227</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -1591,51 +1733,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731624038.0644522</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731624039.1067877</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731624038.0644522.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731624039.1067877.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>60.54</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>60.49</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>-0.04999999999999716</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -1643,51 +1791,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731624039.1237435</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731624039.624317</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731624039.1237435.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731624039.624317.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>60.49</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>60.41</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.0800000000000054</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -1695,51 +1849,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731624045.7841873</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731624049.3904002</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731624045.7841873.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731624049.3904002.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>141.36</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>141.22</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>-0.1400000000000148</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -1747,95 +1907,107 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731624049.4053605</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731624049.4053605.png</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731624049.4053605.png</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>141.22</v>
       </c>
-      <c r="J27" t="n">
-        <v>141.22</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>140.78</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.4399999999999977</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731624051.9051828</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731624053.5637758</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731624051.9051828.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731624053.5637758.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>54</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>54.05</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>-0.04999999999999716</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -1843,51 +2015,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731624053.5797467</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731624055.701733</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731624053.5797467.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731624055.701733.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>54.05</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>53.97</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>-0.07999999999999829</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -1895,51 +2073,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731624055.7186897</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731624056.554432</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731624055.7186897.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731624056.554432.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>53.97</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>53.83</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.1400000000000006</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -1947,51 +2131,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731624057.097272</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731624058.1998043</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731624057.097272.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731624058.1998043.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>53.88</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>53.83</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.05000000000000426</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -1999,95 +2189,107 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731624058.216759</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>./test_images/ABIO1731624058.216759.png</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
+          <t>./test_images/ABIO1731624058.216759.png</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>53.83</v>
       </c>
-      <c r="J32" t="n">
-        <v>53.83</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>53.51</v>
+      </c>
+      <c r="M32" t="n">
+        <v>-0.3200000000000003</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-0.59</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731624067.242288</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731624068.6654627</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731624067.242288.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731624068.6654627.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>374.99</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>374</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.9900000000000091</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -2095,95 +2297,107 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731624082.231957</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731624082.231957.png</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731624082.231957.png</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>3020.6</v>
       </c>
-      <c r="J34" t="n">
-        <v>3020.6</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>3018.15</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-2.449999999999818</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731624084.4009275</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731624089.855204</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731624084.4009275.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731624089.855204.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>34.6</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>34.68</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.07999999999999829</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -2191,95 +2405,107 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731624093.3983095</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>./test_images/RUAL1731624093.3983095.png</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
+          <t>./test_images/RUAL1731624093.3983095.png</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>34.395</v>
       </c>
-      <c r="J36" t="n">
-        <v>34.395</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>34.53</v>
+      </c>
+      <c r="M36" t="n">
+        <v>-0.134999999999998</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-0.39</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731624096.0223162</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731624096.993377</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/TATN1731624096.0223162.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/TATN1731624096.993377.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>640.1</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>640.3</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.1999999999999318</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -2287,44 +2513,50 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731624104.2948105</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>./test_images/TATN1731624104.2948105.png</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
+          <t>./test_images/TATN1731624104.2948105.png</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>640.4</v>
       </c>
-      <c r="J38" t="n">
-        <v>640.4</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>640.6</v>
+      </c>
+      <c r="M38" t="n">
+        <v>-0.2000000000000455</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-0.03</v>
       </c>
     </row>
   </sheetData>
@@ -2385,19 +2617,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.06000000000000938</v>
+        <v>-0.2599999999999909</v>
       </c>
       <c r="C2" t="n">
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01200000000000188</v>
+        <v>-0.05199999999999818</v>
       </c>
       <c r="E2" t="n">
-        <v>0.11</v>
+        <v>-0.48</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="3">
@@ -2429,19 +2661,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3200000000000074</v>
+        <v>0.2800000000000011</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1066666666666691</v>
+        <v>0.09333333333333371</v>
       </c>
       <c r="E4" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -2451,16 +2683,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06000000000000227</v>
+        <v>-0.04000000000002046</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.02000000000000076</v>
+        <v>-0.01333333333334016</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.04000000000000004</v>
+        <v>-0.03000000000000003</v>
       </c>
       <c r="F5" t="n">
         <v>-0.01</v>
@@ -2473,19 +2705,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.000000000000227</v>
+        <v>-1.199999999999818</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>1.000000000000076</v>
+        <v>-0.3999999999999393</v>
       </c>
       <c r="E6" t="n">
-        <v>0.29</v>
+        <v>-0.11</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="7">
@@ -2517,19 +2749,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.07999999999999829</v>
+        <v>-0.05499999999999972</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>0.03999999999999915</v>
+        <v>-0.02749999999999986</v>
       </c>
       <c r="E8" t="n">
-        <v>0.23</v>
+        <v>-0.16</v>
       </c>
       <c r="F8" t="n">
-        <v>0.12</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="9">
@@ -2539,19 +2771,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1999999999999318</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>0.09999999999996589</v>
+        <v>-5.684341886080801e-14</v>
       </c>
       <c r="E9" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -2583,19 +2815,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1400000000000148</v>
+        <v>0.2999999999999829</v>
       </c>
       <c r="C11" t="n">
         <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.07000000000000739</v>
+        <v>0.1499999999999915</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1</v>
+        <v>0.21</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="12">
@@ -2649,19 +2881,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-2.449999999999818</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-2.449999999999818</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-0.08</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="15">
@@ -2671,19 +2903,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>-0.3700000000000045</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>-0.3700000000000045</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>-0.72</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>-0.72</v>
       </c>
     </row>
     <row r="16">
@@ -2693,19 +2925,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>0.1200000000000045</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>0.1200000000000045</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="17">
